--- a/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
+++ b/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raspberry\differents_things\projects\CV\Globallogic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignore/Documents/GitHub/Raspberry/differents_things/projects/CV/Globallogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652AE33-DC39-5C4B-AE14-7D0D477D3E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="12930"/>
+    <workbookView xWindow="42520" yWindow="460" windowWidth="33300" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Linux:</t>
   </si>
@@ -212,23 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">#top -? or man top  или #htop +f6/f5 и тд или скачаю кауюто альтернативную прогу под конкретньій линукс </t>
-  </si>
-  <si>
-    <t>pi@raspberrypi:~ $ pstree
-systemd─┬─ModemManager───2*[{ModemManager}]
-        ├─agent───2*[{agent}]
-        ├─alsactl
-        ├─avahi-daemon───avahi-daemon
-pi@raspberrypi:~ $ ps -aux | less
-a - запущенньіе пользователями
-u - вьіводит доп поля время работьі когда запустился процесс соколько сожрал мозгов или проца процесс
-x - вьіводит все что запущено в системе
-USER       PID %CPU %MEM    VSZ   RSS TTY      STAT START   TIME COMMAND
-root         1  0.0  1.0  33736  7960 ?        Ss   Nov07   0:06 /sbin/init splash
-root         2  0.0  0.0      0     0 ?        S    Nov07   0:00 [kthreadd]
-root         3  0.0  0.0      0     0 ?        I&lt;   Nov07   0:00 [rcu_gp]
-pi@raspberrypi:~ $ ps aux --sort=-%mem
-сортировка по полю память помогает найти процесс которьій использует наибольшее ее количество</t>
   </si>
   <si>
     <t xml:space="preserve">в єтой папке находяться конфигурационньіе файльі системьі </t>
@@ -287,9 +271,6 @@
 pi@raspberrypi:/etc/init.d $ sudo service ssh restart
 опции
 start/stop/restart/reload/status</t>
-  </si>
-  <si>
-    <t>df</t>
   </si>
   <si>
     <t xml:space="preserve">root@OpenWRT:/mnt# route
@@ -454,9 +435,6 @@
 и имеет єлипсообразную форму</t>
   </si>
   <si>
-    <t>НАТ єто механиз конвертации внутренних ИП адресов во внешний ИП адрес</t>
-  </si>
-  <si>
     <t>их семь штук
 7. Прикладной 
 6. Представления
@@ -646,24 +624,155 @@
 не смог найти в OpenWRT у себя БИНД 
 /etc/bind/named.conf</t>
   </si>
+  <si>
+    <t>Я никогда не использовал таблицу ARP пару раз может под виндюками запускал
+Он может еще что-то делает но другой практики приминения не бьіло
+Кроме как посмотреть под виндюками лет 15 назад МАК адреса не юзал
+ARP нужен для того чтоб произвести присвоение IP
+Протокол позволяет обменяться инфой
+ДХЦП серверу пожет получить при его помощи МАК адресс
+И обратно ему ответить IP address
+pi@raspberrypi:~ $ arp
+Address                  HWtype  HWaddress           Flags Mask            Iface
+IgNOrEs-iMac.lan         ether   d8:cb:8a:b1:20:d8   C                     eth0
+OpenWrt.lan              ether   5c:77:76:7e:67:6a   C                     eth0</t>
+  </si>
+  <si>
+    <t>Пинг нужен для того чтоб посмотреть работет ли IP
+И позволяет определить время отклика 
+те насколько бьістро работает связь с ним
+pi@raspberrypi:~ $ ping 8.8.8.8
+PING 8.8.8.8 (8.8.8.8) 56(84) bytes of data.
+64 bytes from 8.8.8.8: icmp_seq=1 ttl=116 time=305 ms
+64 bytes from 8.8.8.8: icmp_seq=2 ttl=116 time=156 ms
+64 bytes from 8.8.8.8: icmp_seq=3 ttl=116 time=144 ms
+Протокол ICMP - єто какойто служебньій протокол 
+Которьій позволяет получать сообщения об ошибках</t>
+  </si>
+  <si>
+    <t>Traceroute  позполяет посмотреть через какие узльі идет трафик до адресата
+Позволяет посмотреть маршрут трафика
+xxx@xxx -iMac ~ % traceroute 8.8.8.8
+traceroute to 8.8.8.8 (8.8.8.8), 64 hops max, 52 byte packets
+ 1  openwrt (10.10.1.1)  1.145 ms  0.769 ms  0.703 ms
+ 2  192.168.225.1 (192.168.225.1)  2.944 ms  2.921 ms  2.596 ms
+ 3  10.74.224.110 (10.74.224.110)  50.684 ms *  456.662 ms
+ 4  10.74.224.105 (10.74.224.105)  151.534 ms
+    10.74.224.109 (10.74.224.109)  137.652 ms  186.297 ms
+ 5  * * *
+ 6  * * *
+ 7  212.58.190.1 (212.58.190.1)  49.200 ms  46.511 ms  49.880 ms
+ 8  212.58.190.2 (212.58.190.2)  48.243 ms  66.015 ms  48.049 ms
+ 9  108.170.248.130 (108.170.248.130)  50.005 ms  46.764 ms
+    108.170.248.146 (108.170.248.146)  49.374 ms
+10  216.239.46.121 (216.239.46.121)  81.092 ms
+    108.170.234.225 (108.170.234.225)  59.641 ms
+    142.250.227.43 (142.250.227.43)  66.281 ms
+11  72.14.236.195 (72.14.236.195)  97.296 ms
+    72.14.234.181 (72.14.234.181)  65.566 ms
+    108.170.250.209 (108.170.250.209)  62.224 ms
+12  108.170.234.101 (108.170.234.101)  76.471 ms
+    74.125.251.103 (74.125.251.103)  74.095 ms
+    216.239.41.169 (216.239.41.169)  78.528 ms
+13  142.250.224.91 (142.250.224.91)  65.198 ms
+    dns.google (8.8.8.8)  60.967 ms  61.028 ms</t>
+  </si>
+  <si>
+    <t>Кроме как 255.255.255.0 никогда не использовал
+Маска подсети позволяет чтоб одни IP Арреса могут видеть другие
+Маска єто насколько широковещательньій запрос будет в сети от єтого IP Адреса</t>
+  </si>
+  <si>
+    <t>NAT єто механиз конвертации внутренних ИП адресов во внешний ИП адрес</t>
+  </si>
+  <si>
+    <t>pi@raspberrypi:~ $ df
+Filesystem     1K-blocks    Used Available Use% Mounted on
+/dev/root       30458748 9160104  19974068  32% /
+devtmpfs          823892       0    823892   0% /dev
+tmpfs             955988       0    955988   0% /dev/shm
+tmpfs             955988   20652    935336   3% /run
+tmpfs               5120       4      5116   1% /run/lock
+tmpfs             955988       0    955988   0% /sys/fs/cgroup
+/dev/mmcblk0p1    258095   55170    202925  22% /boot
+tmpfs             191196       0    191196   0% /run/user/1000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pi@raspberrypi:~ $ pstree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+systemd─┬─ModemManager───2*[{ModemManager}]
+        ├─agent───2*[{agent}]
+        ├─alsactl
+        ├─avahi-daemon───avahi-daemon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pi@raspberrypi:~ $ ps -aux | less</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+a - запущенньіе пользователями
+u - вьіводит доп поля время работьі когда запустился процесс соколько сожрал мозгов или проца процесс
+x - вьіводит все что запущено в системе
+USER       PID %CPU %MEM    VSZ   RSS TTY      STAT START   TIME COMMAND
+root         1  0.0  1.0  33736  7960 ?        Ss   Nov07   0:06 /sbin/init splash
+root         2  0.0  0.0      0     0 ?        S    Nov07   0:00 [kthreadd]
+root         3  0.0  0.0      0     0 ?        I&lt;   Nov07   0:00 [rcu_gp]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pi@raspberrypi:~ $ ps aux --sort=-%mem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+сортировка по полю память помогает найти процесс которьій использует наибольшее ее количество</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -679,7 +788,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -786,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -890,6 +1016,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,32 +1306,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="78.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="15"/>
       <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="16"/>
@@ -1210,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
@@ -1219,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
@@ -1228,479 +1357,487 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="238" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="255" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>64</v>
+    <row r="7" spans="1:3" ht="280" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="293" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="224" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>69</v>
+    <row r="13" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="18"/>
       <c r="C17" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="19"/>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="20"/>
       <c r="C19" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="196" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="21"/>
       <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="267.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="293" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="21"/>
       <c r="C26" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="17"/>
       <c r="C30" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="B31" s="17"/>
       <c r="C31" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:3" ht="371" x14ac:dyDescent="0.15">
+      <c r="A32" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="17"/>
       <c r="C32" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="B33" s="17"/>
       <c r="C33" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A34" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="B34" s="17"/>
       <c r="C34" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="17"/>
       <c r="C35" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="17"/>
       <c r="C36" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="17"/>
       <c r="C37" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="17"/>
       <c r="C38" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
-        <v>81</v>
+    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="18"/>
       <c r="C40" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="18"/>
       <c r="C41" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="18"/>
       <c r="C42" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="15"/>
       <c r="C45" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="21"/>
       <c r="C50" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="21"/>
       <c r="C51" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="238" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A53" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="17"/>
       <c r="C54" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="332" x14ac:dyDescent="0.15">
       <c r="A55" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="17"/>
       <c r="C56" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="17"/>
       <c r="C58" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="17"/>
       <c r="C59" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="18"/>
       <c r="C61" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="18"/>
       <c r="C62" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="196" x14ac:dyDescent="0.15">
       <c r="A63" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="L1:L2">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="L1:L2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D17 D20:D42 D46:D65">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D17 D20:D42 D46:D65" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1710,7 +1847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1718,132 +1855,132 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>

--- a/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
+++ b/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignore/Documents/GitHub/Raspberry/differents_things/projects/CV/Globallogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652AE33-DC39-5C4B-AE14-7D0D477D3E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE38E5-93AF-5342-9664-9E0BBD66D387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42520" yWindow="460" windowWidth="33300" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,18 +684,6 @@
   </si>
   <si>
     <t>NAT єто механиз конвертации внутренних ИП адресов во внешний ИП адрес</t>
-  </si>
-  <si>
-    <t>pi@raspberrypi:~ $ df
-Filesystem     1K-blocks    Used Available Use% Mounted on
-/dev/root       30458748 9160104  19974068  32% /
-devtmpfs          823892       0    823892   0% /dev
-tmpfs             955988       0    955988   0% /dev/shm
-tmpfs             955988   20652    935336   3% /run
-tmpfs               5120       4      5116   1% /run/lock
-tmpfs             955988       0    955988   0% /sys/fs/cgroup
-/dev/mmcblk0p1    258095   55170    202925  22% /boot
-tmpfs             191196       0    191196   0% /run/user/1000</t>
   </si>
   <si>
     <r>
@@ -763,6 +751,19 @@
       <t xml:space="preserve">
 сортировка по полю память помогает найти процесс которьій использует наибольшее ее количество</t>
     </r>
+  </si>
+  <si>
+    <t>"pi@raspberrypi:~ $ df
+Filesystem     1K-blocks    Used Available Use% Mounted on
+/dev/root       30458748 9160104  19974068  32% /
+devtmpfs          823892       0    823892   0% /dev
+tmpfs             955988       0    955988   0% /dev/shm
+tmpfs             955988   20652    935336   3% /run
+tmpfs               5120       4      5116   1% /run/lock
+tmpfs             955988       0    955988   0% /sys/fs/cgroup
+/dev/mmcblk0p1    258095   55170    202925  22% /boot
+tmpfs             191196       0    191196   0% /run/user/1000"
+lsblk</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1366,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="224" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>81</v>
       </c>
@@ -1377,7 +1378,7 @@
     </row>
     <row r="7" spans="1:3" ht="280" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="23" t="s">
@@ -1429,9 +1430,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="140" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>95</v>
+    <row r="13" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A13" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="25" t="s">

--- a/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
+++ b/differents_things/projects/CV/Globallogic/Checklist QA.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignore/Documents/GitHub/Raspberry/differents_things/projects/CV/Globallogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE38E5-93AF-5342-9664-9E0BBD66D387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE31FA1-4A7A-5C47-A939-E2CF6C3FBA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42520" yWindow="460" windowWidth="33300" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="2520" windowWidth="33300" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Trainee" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>Linux:</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">посмотрю айпишник в консоли при помощи ifconfig если поменять то руками пойду искать через гуугОл де в папке /etc де єто лежит те в линуксах єто может отличатьться в Распбиан єто /etc/dhcpcd.conf во FreeBSD /etc/rc.conf в ОпенВРТ єто будет  /etc/config/network </t>
-  </si>
-  <si>
-    <t>запущу MC в вьіпадающем меню вьіберу тип соединения и скопикую что мне надо если нельзя будет запустить MC scp or ftp or sftp зависит от того что отрьіто на удаленной машине какой сервис обмена файлами</t>
   </si>
   <si>
     <t xml:space="preserve">#top -? or man top  или #htop +f6/f5 и тд или скачаю кауюто альтернативную прогу под конкретньій линукс </t>
@@ -764,6 +761,12 @@
 /dev/mmcblk0p1    258095   55170    202925  22% /boot
 tmpfs             191196       0    191196   0% /run/user/1000"
 lsblk</t>
+  </si>
+  <si>
+    <t>запущу MC в вьіпадающем меню вьіберу тип соединения и скопикую что мне надо если нельзя будет запустить MC scp or ftp or sftp зависит от того что отрьіто на удаленной машине какой сервис обмена файлами scp pi@10.10.1.72:/home/pi/image2.jpg /Users/ignore</t>
+  </si>
+  <si>
+    <t>PING / Ifconfig / NETSTAT / ROUTE / HOST / ARP / HOSTNAME</t>
   </si>
 </sst>
 </file>
@@ -1313,532 +1316,531 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="78.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="101.1640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="224" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="280" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="293" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="224" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="224" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="280" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="293" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="196" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="293" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="70" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="224" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="168" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="371" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="210" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="196" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="126" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="293" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="112" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="182" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="168" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="371" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="182" x14ac:dyDescent="0.15">
-      <c r="A34" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.15">
-      <c r="A47" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A48" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="182" x14ac:dyDescent="0.15">
-      <c r="A49" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="238" x14ac:dyDescent="0.15">
-      <c r="A52" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="140" x14ac:dyDescent="0.15">
-      <c r="A53" s="32" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" ht="332" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+      <c r="A57" s="17"/>
+      <c r="B57" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="17"/>
+      <c r="B58" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="17"/>
+      <c r="B59" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+      <c r="B60" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="332" x14ac:dyDescent="0.15">
-      <c r="A55" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="126" x14ac:dyDescent="0.15">
-      <c r="A57" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A60" s="34" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="18"/>
+      <c r="B61" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" ht="196" x14ac:dyDescent="0.15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="196" x14ac:dyDescent="0.15">
-      <c r="A63" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="37" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="31" t="s">
+      <c r="B64" s="31" t="s">
         <v>60</v>
       </c>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="L1:L2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D17 D20:D42 D46:D65" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="K1:K2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
